--- a/source/constructs/config/batch_create/identifier/template/batch_create_identifier-cn.xlsx
+++ b/source/constructs/config/batch_create/identifier/template/batch_create_identifier-cn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuihubin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCF1DCC-C6F6-164A-AD6F-3A5D663704A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248B7EC-F5C7-9043-A597-D9A7FCCDB2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3760" windowWidth="28800" windowHeight="13300" xr2:uid="{A3F6337F-BB59-9941-91D9-6943CD218DAB}"/>
   </bookViews>
@@ -119,7 +119,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: 必填
+      <t xml:space="preserve">: 和Header Keywords两者必须至少填写一项
 - </t>
     </r>
     <r>
@@ -137,7 +137,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: 选填
+      <t xml:space="preserve">: 和Rule两者必须至少填写一项，多个关键词用逗号隔开
 - </t>
     </r>
     <r>
@@ -155,7 +155,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">: 选填
+      <t xml:space="preserve">: 选填，多个关键词用逗号隔开
 - </t>
     </r>
     <r>
@@ -648,12 +648,12 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
